--- a/TestData/T2346_Companies_Common_VerifyCoverageTeamOfficerCanBeAddedToCoverageTeams_BySelectingDifferentPrimarySectorValues.xlsx
+++ b/TestData/T2346_Companies_Common_VerifyCoverageTeamOfficerCanBeAddedToCoverageTeams_BySelectingDifferentPrimarySectorValues.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C7818-D8A5-43A7-9DDD-40BBC76EAF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="2955" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -134,19 +135,19 @@
     <t>Drew Koecher</t>
   </si>
   <si>
-    <t>Sonika Goyal</t>
-  </si>
-  <si>
     <t>Pharma</t>
   </si>
   <si>
     <t>OTC</t>
+  </si>
+  <si>
+    <t>Jacklyn Robinson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,8 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -467,49 +467,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,52 +509,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -587,43 +579,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -634,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -645,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -656,7 +648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -664,15 +656,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -681,30 +673,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
